--- a/CASES/02_Wakanda/01_Data/AUX_EXAMPLE_IEEE_39.xlsx
+++ b/CASES/02_Wakanda/01_Data/AUX_EXAMPLE_IEEE_39.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Instrucciones" sheetId="1" state="visible" r:id="rId2"/>
@@ -101,17 +101,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="627" uniqueCount="138">
-  <si>
-    <t xml:space="preserve">Welcome to PywerAPM</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="136">
   <si>
     <t xml:space="preserve">Module 
 Auxiliary Services</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Calle 46 26-30 of. 605, Bogotá D.C.
-(+57) 3107669918</t>
   </si>
   <si>
     <t xml:space="preserve">Company</t>
@@ -530,7 +523,7 @@
     <numFmt numFmtId="167" formatCode="General"/>
     <numFmt numFmtId="168" formatCode="0"/>
   </numFmts>
-  <fonts count="11">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -581,12 +574,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -1005,7 +992,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1041,7 +1028,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="9" borderId="11" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1113,55 +1100,55 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="20" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="21" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="13" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="9" fillId="13" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="13" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="9" fillId="13" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="14" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="9" fillId="14" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="14" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="9" fillId="14" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="15" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="9" fillId="15" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="15" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="9" fillId="15" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="16" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="9" fillId="16" borderId="22" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="16" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="9" fillId="16" borderId="23" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="17" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="9" fillId="17" borderId="24" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="168" fontId="10" fillId="17" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="168" fontId="9" fillId="17" borderId="25" xfId="0" applyFont="true" applyBorder="true" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -1238,48 +1225,6 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>625320</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>50760</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>204840</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>150840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="0" name="Picture 1" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId1"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="625320" y="812520"/>
-          <a:ext cx="3457800" cy="2195640"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships"/>
 </file>
 
@@ -1290,8 +1235,8 @@
   </sheetPr>
   <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H23" activeCellId="0" sqref="H23"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.171875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1300,9 +1245,7 @@
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
+      <c r="A1" s="2"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
@@ -1311,7 +1254,7 @@
       <c r="G1" s="2"/>
       <c r="H1" s="2"/>
       <c r="I1" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J1" s="3"/>
       <c r="K1" s="3"/>
@@ -1439,9 +1382,7 @@
       <c r="K19" s="3"/>
     </row>
     <row r="20" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="5" t="s">
-        <v>2</v>
-      </c>
+      <c r="A20" s="5"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -1453,7 +1394,7 @@
       <c r="J20" s="6"/>
       <c r="K20" s="6"/>
     </row>
-    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="5"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
@@ -1466,7 +1407,7 @@
       <c r="J21" s="6"/>
       <c r="K21" s="6"/>
     </row>
-    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="5"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
@@ -1493,7 +1434,6 @@
     <oddHeader/>
     <oddFooter/>
   </headerFooter>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -1504,7 +1444,7 @@
   </sheetPr>
   <dimension ref="A1:L40"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="113" zoomScaleNormal="113" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="113" zoomScaleNormal="113" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="L41" activeCellId="0" sqref="L41"/>
     </sheetView>
   </sheetViews>
@@ -1516,1530 +1456,1530 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="19.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="16.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="9" style="0" width="11.99"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="8" width="10.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="8" width="10.65"/>
     <col collapsed="false" customWidth="false" hidden="true" outlineLevel="0" max="1024" min="13" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" s="13" customFormat="true" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="D1" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>5</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="H1" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="I1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="K1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="L1" s="11" t="s">
         <v>12</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="L1" s="11" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="14" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C2" s="16" t="n">
         <v>32</v>
       </c>
       <c r="D2" s="17" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F2" s="19" t="n">
         <v>2006</v>
       </c>
       <c r="G2" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="20" t="s">
+      <c r="J2" s="21" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="21" t="s">
+      <c r="K2" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="J2" s="21" t="s">
+      <c r="L2" s="22" t="s">
         <v>22</v>
-      </c>
-      <c r="K2" s="21" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B3" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C3" s="25" t="n">
         <v>33</v>
       </c>
       <c r="D3" s="26" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3" s="27" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" s="28" t="n">
         <v>2006</v>
       </c>
       <c r="G3" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I3" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="J3" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="K3" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="L3" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K3" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L3" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B4" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C4" s="25" t="n">
         <v>34</v>
       </c>
       <c r="D4" s="26" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E4" s="27" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F4" s="28" t="n">
         <v>2010</v>
       </c>
       <c r="G4" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H4" s="29" t="s">
+      <c r="J4" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="30" t="s">
+      <c r="K4" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="30" t="s">
+      <c r="L4" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K4" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L4" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B5" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C5" s="25" t="n">
         <v>35</v>
       </c>
       <c r="D5" s="26" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E5" s="27" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F5" s="28" t="n">
         <v>1997</v>
       </c>
       <c r="G5" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I5" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H5" s="29" t="s">
+      <c r="J5" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I5" s="30" t="s">
+      <c r="K5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J5" s="30" t="s">
+      <c r="L5" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K5" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L5" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B6" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C6" s="25" t="n">
         <v>36</v>
       </c>
       <c r="D6" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="E6" s="27" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F6" s="28" t="n">
         <v>2015</v>
       </c>
       <c r="G6" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I6" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H6" s="29" t="s">
+      <c r="J6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I6" s="30" t="s">
+      <c r="K6" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J6" s="30" t="s">
+      <c r="L6" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K6" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L6" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B7" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C7" s="25" t="n">
         <v>37</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E7" s="27" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F7" s="28" t="n">
         <v>2006</v>
       </c>
       <c r="G7" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I7" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H7" s="29" t="s">
+      <c r="J7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I7" s="30" t="s">
+      <c r="K7" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J7" s="30" t="s">
+      <c r="L7" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K7" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L7" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B8" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C8" s="25" t="n">
         <v>38</v>
       </c>
       <c r="D8" s="26" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="E8" s="27" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="F8" s="28" t="n">
         <v>2010</v>
       </c>
       <c r="G8" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I8" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H8" s="29" t="s">
+      <c r="J8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I8" s="30" t="s">
+      <c r="K8" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J8" s="30" t="s">
+      <c r="L8" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K8" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L8" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C9" s="25" t="n">
         <v>39</v>
       </c>
       <c r="D9" s="26" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E9" s="27" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="F9" s="28" t="n">
         <v>1997</v>
       </c>
       <c r="G9" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I9" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H9" s="29" t="s">
+      <c r="J9" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I9" s="30" t="s">
+      <c r="K9" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J9" s="30" t="s">
+      <c r="L9" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K9" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L9" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C10" s="25" t="n">
         <v>40</v>
       </c>
       <c r="D10" s="26" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E10" s="27" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F10" s="28" t="n">
         <v>1997</v>
       </c>
       <c r="G10" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I10" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H10" s="29" t="s">
+      <c r="J10" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I10" s="30" t="s">
+      <c r="K10" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J10" s="30" t="s">
+      <c r="L10" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K10" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B11" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C11" s="25" t="n">
         <v>41</v>
       </c>
       <c r="D11" s="26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E11" s="27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="F11" s="28" t="n">
         <v>2007</v>
       </c>
       <c r="G11" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H11" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I11" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H11" s="29" t="s">
+      <c r="J11" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I11" s="30" t="s">
+      <c r="K11" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J11" s="30" t="s">
+      <c r="L11" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K11" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="25" t="n">
         <v>42</v>
       </c>
       <c r="D12" s="26" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E12" s="27" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="F12" s="28" t="n">
         <v>1997</v>
       </c>
       <c r="G12" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H12" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I12" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H12" s="29" t="s">
+      <c r="J12" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I12" s="30" t="s">
+      <c r="K12" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J12" s="30" t="s">
+      <c r="L12" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K12" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L12" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B13" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C13" s="25" t="n">
         <v>43</v>
       </c>
       <c r="D13" s="26" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E13" s="27" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="F13" s="28" t="n">
         <v>1997</v>
       </c>
       <c r="G13" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H13" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H13" s="29" t="s">
+      <c r="J13" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I13" s="30" t="s">
+      <c r="K13" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J13" s="30" t="s">
+      <c r="L13" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K13" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L13" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="25" t="n">
         <v>44</v>
       </c>
       <c r="D14" s="26" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E14" s="27" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F14" s="28" t="n">
         <v>2007</v>
       </c>
       <c r="G14" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H14" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I14" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H14" s="29" t="s">
+      <c r="J14" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I14" s="30" t="s">
+      <c r="K14" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J14" s="30" t="s">
+      <c r="L14" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K14" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L14" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B15" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C15" s="25" t="n">
         <v>45</v>
       </c>
       <c r="D15" s="26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="E15" s="27" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F15" s="28" t="n">
         <v>2006</v>
       </c>
       <c r="G15" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H15" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I15" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H15" s="29" t="s">
+      <c r="J15" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="30" t="s">
+      <c r="K15" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J15" s="30" t="s">
+      <c r="L15" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K15" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L15" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C16" s="25" t="n">
         <v>46</v>
       </c>
       <c r="D16" s="26" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E16" s="27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F16" s="28" t="n">
         <v>1997</v>
       </c>
       <c r="G16" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H16" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I16" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H16" s="29" t="s">
+      <c r="J16" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I16" s="30" t="s">
+      <c r="K16" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J16" s="30" t="s">
+      <c r="L16" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K16" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L16" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C17" s="25" t="n">
         <v>47</v>
       </c>
       <c r="D17" s="26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="E17" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F17" s="28" t="n">
         <v>1997</v>
       </c>
       <c r="G17" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H17" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I17" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H17" s="29" t="s">
+      <c r="J17" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I17" s="30" t="s">
+      <c r="K17" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J17" s="30" t="s">
+      <c r="L17" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K17" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L17" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B18" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C18" s="25" t="n">
         <v>48</v>
       </c>
       <c r="D18" s="26" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E18" s="27" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F18" s="28" t="n">
         <v>1997</v>
       </c>
       <c r="G18" s="28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H18" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I18" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J18" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="J18" s="30" t="s">
+      <c r="K18" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L18" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K18" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L18" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B19" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C19" s="25" t="n">
         <v>49</v>
       </c>
       <c r="D19" s="26" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E19" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F19" s="28" t="n">
         <v>2016</v>
       </c>
       <c r="G19" s="28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H19" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="J19" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I19" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="J19" s="30" t="s">
+      <c r="K19" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L19" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K19" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L19" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B20" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C20" s="25" t="n">
         <v>50</v>
       </c>
       <c r="D20" s="26" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E20" s="27" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="F20" s="28" t="n">
         <v>1997</v>
       </c>
       <c r="G20" s="28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H20" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I20" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="J20" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="J20" s="30" t="s">
+      <c r="K20" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L20" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K20" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L20" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B21" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C21" s="25" t="n">
         <v>51</v>
       </c>
       <c r="D21" s="26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E21" s="27" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="F21" s="28" t="n">
         <v>2006</v>
       </c>
       <c r="G21" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H21" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I21" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H21" s="29" t="s">
+      <c r="J21" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I21" s="30" t="s">
+      <c r="K21" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J21" s="30" t="s">
+      <c r="L21" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K21" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L21" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B22" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C22" s="25" t="n">
         <v>52</v>
       </c>
       <c r="D22" s="26" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E22" s="27" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="F22" s="28" t="n">
         <v>2010</v>
       </c>
       <c r="G22" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H22" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I22" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H22" s="29" t="s">
+      <c r="J22" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I22" s="30" t="s">
+      <c r="K22" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J22" s="30" t="s">
+      <c r="L22" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K22" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L22" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B23" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C23" s="25" t="n">
         <v>53</v>
       </c>
       <c r="D23" s="26" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E23" s="27" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="F23" s="28" t="n">
         <v>1997</v>
       </c>
       <c r="G23" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H23" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I23" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H23" s="29" t="s">
+      <c r="J23" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I23" s="30" t="s">
+      <c r="K23" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J23" s="30" t="s">
+      <c r="L23" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K23" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L23" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B24" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C24" s="25" t="n">
         <v>54</v>
       </c>
       <c r="D24" s="26" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E24" s="27" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="F24" s="28" t="n">
         <v>2015</v>
       </c>
       <c r="G24" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H24" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I24" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H24" s="29" t="s">
+      <c r="J24" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I24" s="30" t="s">
+      <c r="K24" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J24" s="30" t="s">
+      <c r="L24" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K24" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L24" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B25" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="25" t="n">
         <v>55</v>
       </c>
       <c r="D25" s="26" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E25" s="27" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F25" s="28" t="n">
         <v>2006</v>
       </c>
       <c r="G25" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H25" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I25" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H25" s="29" t="s">
+      <c r="J25" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I25" s="30" t="s">
+      <c r="K25" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J25" s="30" t="s">
+      <c r="L25" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K25" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L25" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B26" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C26" s="25" t="n">
         <v>56</v>
       </c>
       <c r="D26" s="26" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E26" s="27" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F26" s="28" t="n">
         <v>2010</v>
       </c>
       <c r="G26" s="28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H26" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I26" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J26" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I26" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="J26" s="30" t="s">
+      <c r="K26" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L26" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K26" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L26" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B27" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C27" s="25" t="n">
         <v>57</v>
       </c>
       <c r="D27" s="26" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E27" s="27" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="F27" s="28" t="n">
         <v>1997</v>
       </c>
       <c r="G27" s="28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H27" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I27" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="J27" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I27" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="J27" s="30" t="s">
+      <c r="K27" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L27" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K27" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L27" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B28" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C28" s="25" t="n">
         <v>58</v>
       </c>
       <c r="D28" s="26" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E28" s="27" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F28" s="28" t="n">
         <v>1997</v>
       </c>
       <c r="G28" s="28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H28" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I28" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="J28" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I28" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="J28" s="30" t="s">
+      <c r="K28" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L28" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K28" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L28" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B29" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C29" s="25" t="n">
         <v>59</v>
       </c>
       <c r="D29" s="26" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E29" s="27" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F29" s="28" t="n">
         <v>2007</v>
       </c>
       <c r="G29" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H29" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I29" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H29" s="29" t="s">
+      <c r="J29" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I29" s="30" t="s">
+      <c r="K29" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J29" s="30" t="s">
+      <c r="L29" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K29" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L29" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B30" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C30" s="25" t="n">
         <v>60</v>
       </c>
       <c r="D30" s="26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E30" s="27" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F30" s="28" t="n">
         <v>1997</v>
       </c>
       <c r="G30" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H30" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I30" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H30" s="29" t="s">
+      <c r="J30" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I30" s="30" t="s">
+      <c r="K30" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J30" s="30" t="s">
+      <c r="L30" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K30" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L30" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C31" s="25" t="n">
         <v>61</v>
       </c>
       <c r="D31" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E31" s="27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F31" s="28" t="n">
         <v>1997</v>
       </c>
       <c r="G31" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H31" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I31" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H31" s="29" t="s">
+      <c r="J31" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I31" s="30" t="s">
+      <c r="K31" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J31" s="30" t="s">
+      <c r="L31" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K31" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L31" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B32" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C32" s="25" t="n">
         <v>62</v>
       </c>
       <c r="D32" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E32" s="27" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F32" s="28" t="n">
         <v>2007</v>
       </c>
       <c r="G32" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H32" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H32" s="29" t="s">
+      <c r="J32" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="30" t="s">
+      <c r="K32" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J32" s="30" t="s">
+      <c r="L32" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K32" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L32" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B33" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C33" s="25" t="n">
         <v>63</v>
       </c>
       <c r="D33" s="26" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E33" s="27" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F33" s="28" t="n">
         <v>2006</v>
       </c>
       <c r="G33" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H33" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I33" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H33" s="29" t="s">
+      <c r="J33" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I33" s="30" t="s">
+      <c r="K33" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J33" s="30" t="s">
+      <c r="L33" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K33" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L33" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C34" s="25" t="n">
         <v>64</v>
       </c>
       <c r="D34" s="26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E34" s="27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F34" s="28" t="n">
         <v>1997</v>
       </c>
       <c r="G34" s="28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H34" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I34" s="30" t="s">
+        <v>55</v>
+      </c>
+      <c r="J34" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I34" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="J34" s="30" t="s">
+      <c r="K34" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L34" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K34" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L34" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B35" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C35" s="25" t="n">
         <v>65</v>
       </c>
       <c r="D35" s="26" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E35" s="27" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F35" s="28" t="n">
         <v>1997</v>
       </c>
       <c r="G35" s="28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H35" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I35" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="J35" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I35" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="J35" s="30" t="s">
+      <c r="K35" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L35" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K35" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L35" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B36" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C36" s="25" t="n">
         <v>66</v>
       </c>
       <c r="D36" s="26" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E36" s="27" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F36" s="28" t="n">
         <v>1997</v>
       </c>
       <c r="G36" s="28" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="H36" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I36" s="30" t="s">
+        <v>58</v>
+      </c>
+      <c r="J36" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I36" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="J36" s="30" t="s">
+      <c r="K36" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="L36" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K36" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L36" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B37" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C37" s="25" t="n">
         <v>67</v>
       </c>
       <c r="D37" s="26" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E37" s="27" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F37" s="28" t="n">
         <v>2016</v>
       </c>
       <c r="G37" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H37" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I37" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H37" s="29" t="s">
+      <c r="J37" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I37" s="30" t="s">
+      <c r="K37" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J37" s="30" t="s">
+      <c r="L37" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K37" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L37" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A38" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B38" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C38" s="25" t="n">
         <v>68</v>
       </c>
       <c r="D38" s="26" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E38" s="27" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F38" s="28" t="n">
         <v>1997</v>
       </c>
       <c r="G38" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H38" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I38" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H38" s="29" t="s">
+      <c r="J38" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I38" s="30" t="s">
+      <c r="K38" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J38" s="30" t="s">
+      <c r="L38" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K38" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L38" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A39" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B39" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C39" s="25" t="n">
         <v>69</v>
       </c>
       <c r="D39" s="26" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E39" s="27" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F39" s="28" t="n">
         <v>2007</v>
       </c>
       <c r="G39" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H39" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I39" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H39" s="29" t="s">
+      <c r="J39" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I39" s="30" t="s">
+      <c r="K39" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J39" s="30" t="s">
+      <c r="L39" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K39" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L39" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="23" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B40" s="24" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C40" s="25" t="n">
         <v>70</v>
       </c>
       <c r="D40" s="26" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E40" s="27" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F40" s="28" t="n">
         <v>2006</v>
       </c>
       <c r="G40" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="H40" s="29" t="s">
+        <v>18</v>
+      </c>
+      <c r="I40" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="H40" s="29" t="s">
+      <c r="J40" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="I40" s="30" t="s">
+      <c r="K40" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="J40" s="30" t="s">
+      <c r="L40" s="31" t="s">
         <v>22</v>
-      </c>
-      <c r="K40" s="30" t="s">
-        <v>23</v>
-      </c>
-      <c r="L40" s="31" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -3067,7 +3007,7 @@
       <selection pane="topLeft" activeCell="C11" activeCellId="0" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="1.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="9.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.66"/>
@@ -3080,34 +3020,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="33" t="s">
+      <c r="F1" s="35" t="s">
         <v>104</v>
       </c>
-      <c r="C1" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="34" t="s">
+      <c r="G1" s="36" t="s">
         <v>105</v>
       </c>
-      <c r="F1" s="35" t="s">
+      <c r="H1" s="36" t="s">
         <v>106</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="I1" s="37" t="s">
         <v>107</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="J1" s="36" t="s">
         <v>108</v>
-      </c>
-      <c r="I1" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3142,7 +3082,7 @@
         <v>0</v>
       </c>
       <c r="J2" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3177,7 +3117,7 @@
         <v>1</v>
       </c>
       <c r="J3" s="42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3212,7 +3152,7 @@
         <v>1</v>
       </c>
       <c r="J4" s="42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3247,7 +3187,7 @@
         <v>3</v>
       </c>
       <c r="J5" s="42" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3282,7 +3222,7 @@
         <v>4</v>
       </c>
       <c r="J6" s="42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3317,7 +3257,7 @@
         <v>1</v>
       </c>
       <c r="J7" s="42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3352,7 +3292,7 @@
         <v>1</v>
       </c>
       <c r="J8" s="42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3387,7 +3327,7 @@
         <v>1</v>
       </c>
       <c r="J9" s="42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3422,7 +3362,7 @@
         <v>2</v>
       </c>
       <c r="J10" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3457,7 +3397,7 @@
         <v>2</v>
       </c>
       <c r="J11" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3492,7 +3432,7 @@
         <v>2</v>
       </c>
       <c r="J12" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3527,7 +3467,7 @@
         <v>2</v>
       </c>
       <c r="J13" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3562,7 +3502,7 @@
         <v>2</v>
       </c>
       <c r="J14" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3597,7 +3537,7 @@
         <v>3</v>
       </c>
       <c r="J15" s="42" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3632,7 +3572,7 @@
         <v>0</v>
       </c>
       <c r="J16" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3667,7 +3607,7 @@
         <v>1</v>
       </c>
       <c r="J17" s="42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3702,7 +3642,7 @@
         <v>2</v>
       </c>
       <c r="J18" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3737,7 +3677,7 @@
         <v>2</v>
       </c>
       <c r="J19" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3772,7 +3712,7 @@
         <v>3</v>
       </c>
       <c r="J20" s="42" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3807,7 +3747,7 @@
         <v>2</v>
       </c>
       <c r="J21" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3842,7 +3782,7 @@
         <v>2</v>
       </c>
       <c r="J22" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3877,7 +3817,7 @@
         <v>2</v>
       </c>
       <c r="J23" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3912,7 +3852,7 @@
         <v>2</v>
       </c>
       <c r="J24" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3947,7 +3887,7 @@
         <v>2</v>
       </c>
       <c r="J25" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3982,7 +3922,7 @@
         <v>1</v>
       </c>
       <c r="J26" s="42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4017,7 +3957,7 @@
         <v>2</v>
       </c>
       <c r="J27" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4052,7 +3992,7 @@
         <v>2</v>
       </c>
       <c r="J28" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4087,7 +4027,7 @@
         <v>2</v>
       </c>
       <c r="J29" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4122,7 +4062,7 @@
         <v>2</v>
       </c>
       <c r="J30" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4157,7 +4097,7 @@
         <v>0</v>
       </c>
       <c r="J31" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4192,7 +4132,7 @@
         <v>2</v>
       </c>
       <c r="J32" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4227,7 +4167,7 @@
         <v>4</v>
       </c>
       <c r="J33" s="42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4262,7 +4202,7 @@
         <v>2</v>
       </c>
       <c r="J34" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4297,7 +4237,7 @@
         <v>0</v>
       </c>
       <c r="J35" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4332,7 +4272,7 @@
         <v>2</v>
       </c>
       <c r="J36" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4367,7 +4307,7 @@
         <v>2</v>
       </c>
       <c r="J37" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4402,7 +4342,7 @@
         <v>3</v>
       </c>
       <c r="J38" s="42" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4437,7 +4377,7 @@
         <v>2</v>
       </c>
       <c r="J39" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4472,7 +4412,7 @@
         <v>2</v>
       </c>
       <c r="J40" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4507,7 +4447,7 @@
         <v>2</v>
       </c>
       <c r="J41" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4542,7 +4482,7 @@
         <v>2</v>
       </c>
       <c r="J42" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4577,7 +4517,7 @@
         <v>2</v>
       </c>
       <c r="J43" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4612,7 +4552,7 @@
         <v>2</v>
       </c>
       <c r="J44" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4647,7 +4587,7 @@
         <v>2</v>
       </c>
       <c r="J45" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4682,7 +4622,7 @@
         <v>1</v>
       </c>
       <c r="J46" s="42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4717,7 +4657,7 @@
         <v>2</v>
       </c>
       <c r="J47" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4752,7 +4692,7 @@
         <v>3</v>
       </c>
       <c r="J48" s="42" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4787,7 +4727,7 @@
         <v>2</v>
       </c>
       <c r="J49" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4822,7 +4762,7 @@
         <v>2</v>
       </c>
       <c r="J50" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4857,7 +4797,7 @@
         <v>3</v>
       </c>
       <c r="J51" s="42" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4892,7 +4832,7 @@
         <v>2</v>
       </c>
       <c r="J52" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="53" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4927,7 +4867,7 @@
         <v>2</v>
       </c>
       <c r="J53" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4962,7 +4902,7 @@
         <v>2</v>
       </c>
       <c r="J54" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -4997,7 +4937,7 @@
         <v>2</v>
       </c>
       <c r="J55" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5032,7 +4972,7 @@
         <v>2</v>
       </c>
       <c r="J56" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5067,7 +5007,7 @@
         <v>4</v>
       </c>
       <c r="J57" s="42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5102,7 +5042,7 @@
         <v>0</v>
       </c>
       <c r="J58" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5137,7 +5077,7 @@
         <v>2</v>
       </c>
       <c r="J59" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5172,7 +5112,7 @@
         <v>2</v>
       </c>
       <c r="J60" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5207,7 +5147,7 @@
         <v>2</v>
       </c>
       <c r="J61" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5242,7 +5182,7 @@
         <v>2</v>
       </c>
       <c r="J62" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5277,7 +5217,7 @@
         <v>2</v>
       </c>
       <c r="J63" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5312,7 +5252,7 @@
         <v>1</v>
       </c>
       <c r="J64" s="42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5347,7 +5287,7 @@
         <v>1</v>
       </c>
       <c r="J65" s="42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5382,7 +5322,7 @@
         <v>1</v>
       </c>
       <c r="J66" s="42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5417,7 +5357,7 @@
         <v>2</v>
       </c>
       <c r="J67" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5452,7 +5392,7 @@
         <v>2</v>
       </c>
       <c r="J68" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5487,7 +5427,7 @@
         <v>2</v>
       </c>
       <c r="J69" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5522,7 +5462,7 @@
         <v>2</v>
       </c>
       <c r="J70" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5557,7 +5497,7 @@
         <v>2</v>
       </c>
       <c r="J71" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="72" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5592,7 +5532,7 @@
         <v>2</v>
       </c>
       <c r="J72" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5627,7 +5567,7 @@
         <v>0</v>
       </c>
       <c r="J73" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5662,7 +5602,7 @@
         <v>2</v>
       </c>
       <c r="J74" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5697,7 +5637,7 @@
         <v>2</v>
       </c>
       <c r="J75" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5732,7 +5672,7 @@
         <v>1</v>
       </c>
       <c r="J76" s="42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="77" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5767,7 +5707,7 @@
         <v>1</v>
       </c>
       <c r="J77" s="42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5802,7 +5742,7 @@
         <v>1</v>
       </c>
       <c r="J78" s="42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5837,7 +5777,7 @@
         <v>2</v>
       </c>
       <c r="J79" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5872,7 +5812,7 @@
         <v>2</v>
       </c>
       <c r="J80" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5907,7 +5847,7 @@
         <v>2</v>
       </c>
       <c r="J81" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5942,7 +5882,7 @@
         <v>2</v>
       </c>
       <c r="J82" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5977,7 +5917,7 @@
         <v>2</v>
       </c>
       <c r="J83" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="84" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6012,7 +5952,7 @@
         <v>2</v>
       </c>
       <c r="J84" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="85" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6047,7 +5987,7 @@
         <v>0</v>
       </c>
       <c r="J85" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6082,7 +6022,7 @@
         <v>0</v>
       </c>
       <c r="J86" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6117,7 +6057,7 @@
         <v>0</v>
       </c>
       <c r="J87" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="88" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6152,7 +6092,7 @@
         <v>2</v>
       </c>
       <c r="J88" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="89" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6187,7 +6127,7 @@
         <v>2</v>
       </c>
       <c r="J89" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6222,7 +6162,7 @@
         <v>2</v>
       </c>
       <c r="J90" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6257,7 +6197,7 @@
         <v>0</v>
       </c>
       <c r="J91" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="92" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6292,7 +6232,7 @@
         <v>0</v>
       </c>
       <c r="J92" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="93" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6327,7 +6267,7 @@
         <v>3</v>
       </c>
       <c r="J93" s="42" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="94" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6362,7 +6302,7 @@
         <v>2</v>
       </c>
       <c r="J94" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="95" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6397,7 +6337,7 @@
         <v>2</v>
       </c>
       <c r="J95" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="96" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6432,7 +6372,7 @@
         <v>2</v>
       </c>
       <c r="J96" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="97" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6467,7 +6407,7 @@
         <v>2</v>
       </c>
       <c r="J97" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="98" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6502,7 +6442,7 @@
         <v>2</v>
       </c>
       <c r="J98" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="99" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6537,7 +6477,7 @@
         <v>2</v>
       </c>
       <c r="J99" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="100" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6572,7 +6512,7 @@
         <v>2</v>
       </c>
       <c r="J100" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="101" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6607,7 +6547,7 @@
         <v>2</v>
       </c>
       <c r="J101" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6642,7 +6582,7 @@
         <v>2</v>
       </c>
       <c r="J102" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="103" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6677,7 +6617,7 @@
         <v>0</v>
       </c>
       <c r="J103" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="104" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6712,7 +6652,7 @@
         <v>0</v>
       </c>
       <c r="J104" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="105" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6747,7 +6687,7 @@
         <v>0</v>
       </c>
       <c r="J105" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="106" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6782,7 +6722,7 @@
         <v>2</v>
       </c>
       <c r="J106" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="107" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6817,7 +6757,7 @@
         <v>2</v>
       </c>
       <c r="J107" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="108" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6852,7 +6792,7 @@
         <v>2</v>
       </c>
       <c r="J108" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="109" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6887,7 +6827,7 @@
         <v>0</v>
       </c>
       <c r="J109" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6922,7 +6862,7 @@
         <v>1</v>
       </c>
       <c r="J110" s="42" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="111" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6957,7 +6897,7 @@
         <v>3</v>
       </c>
       <c r="J111" s="42" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="112" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6992,7 +6932,7 @@
         <v>2</v>
       </c>
       <c r="J112" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7027,7 +6967,7 @@
         <v>2</v>
       </c>
       <c r="J113" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7062,7 +7002,7 @@
         <v>4</v>
       </c>
       <c r="J114" s="42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="115" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7097,7 +7037,7 @@
         <v>0</v>
       </c>
       <c r="J115" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="116" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7132,7 +7072,7 @@
         <v>0</v>
       </c>
       <c r="J116" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="117" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7167,7 +7107,7 @@
         <v>2</v>
       </c>
       <c r="J117" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="118" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7202,7 +7142,7 @@
         <v>2</v>
       </c>
       <c r="J118" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="119" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7237,7 +7177,7 @@
         <v>2</v>
       </c>
       <c r="J119" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="120" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7272,7 +7212,7 @@
         <v>2</v>
       </c>
       <c r="J120" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="121" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7307,7 +7247,7 @@
         <v>2</v>
       </c>
       <c r="J121" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="122" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7342,7 +7282,7 @@
         <v>2</v>
       </c>
       <c r="J122" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="123" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7377,7 +7317,7 @@
         <v>4</v>
       </c>
       <c r="J123" s="42" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="124" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7412,7 +7352,7 @@
         <v>0</v>
       </c>
       <c r="J124" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="125" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7447,7 +7387,7 @@
         <v>0</v>
       </c>
       <c r="J125" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="126" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7482,7 +7422,7 @@
         <v>0</v>
       </c>
       <c r="J126" s="42" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="127" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7517,7 +7457,7 @@
         <v>2</v>
       </c>
       <c r="J127" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="128" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7552,7 +7492,7 @@
         <v>2</v>
       </c>
       <c r="J128" s="42" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="129" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7587,7 +7527,7 @@
         <v>3</v>
       </c>
       <c r="J129" s="42" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="130" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8542,59 +8482,59 @@
       <selection pane="topLeft" activeCell="G24" activeCellId="0" sqref="G24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="1.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="9.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.66"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="8.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="11.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="6.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="15.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="38.33"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="45.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="45.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="24.67"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="31.5"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>105</v>
-      </c>
       <c r="F1" s="36" t="s">
+        <v>114</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>115</v>
+      </c>
+      <c r="H1" s="36" t="s">
         <v>116</v>
       </c>
-      <c r="G1" s="36" t="s">
+      <c r="I1" s="36" t="s">
         <v>117</v>
       </c>
-      <c r="H1" s="36" t="s">
+      <c r="J1" s="36" t="s">
         <v>118</v>
       </c>
-      <c r="I1" s="36" t="s">
+      <c r="K1" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="L1" s="36" t="s">
         <v>120</v>
       </c>
-      <c r="K1" s="36" t="s">
+      <c r="M1" s="36" t="s">
         <v>121</v>
-      </c>
-      <c r="L1" s="36" t="s">
-        <v>122</v>
-      </c>
-      <c r="M1" s="36" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8623,22 +8563,22 @@
         <v>4</v>
       </c>
       <c r="H2" s="47" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="I2" s="47" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="K2" s="47" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="L2" s="47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M2" s="47" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11015,11 +10955,11 @@
       <selection pane="topLeft" activeCell="C25" activeCellId="0" sqref="C25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="1.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="9.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="30.83"/>
@@ -11030,40 +10970,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>105</v>
-      </c>
       <c r="F1" s="36" t="s">
+        <v>124</v>
+      </c>
+      <c r="G1" s="36" t="s">
+        <v>116</v>
+      </c>
+      <c r="H1" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="36" t="s">
         <v>126</v>
       </c>
-      <c r="G1" s="36" t="s">
-        <v>118</v>
-      </c>
-      <c r="H1" s="36" t="s">
+      <c r="J1" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>129</v>
-      </c>
       <c r="K1" s="36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -11089,22 +11029,22 @@
         <v>1</v>
       </c>
       <c r="G2" s="47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H2" s="47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I2" s="47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K2" s="47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L2" s="47" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12003,11 +11943,11 @@
       <selection pane="topLeft" activeCell="F1" activeCellId="0" sqref="F1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="1.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="9.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.66"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="11.65"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="30.83"/>
@@ -12018,40 +11958,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>105</v>
-      </c>
       <c r="F1" s="36" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H1" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>129</v>
-      </c>
       <c r="K1" s="36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12077,22 +12017,22 @@
         <v>1</v>
       </c>
       <c r="G2" s="47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H2" s="47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I2" s="47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K2" s="47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L2" s="47" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -12991,11 +12931,11 @@
       <selection pane="topLeft" activeCell="J30" activeCellId="0" sqref="J30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="1.83984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="1.84765625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="1" style="0" width="9.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="12.66"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.34"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="14.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="6.5"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="15.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="30.83"/>
@@ -13006,40 +12946,40 @@
   <sheetData>
     <row r="1" customFormat="false" ht="20" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>102</v>
+      </c>
+      <c r="C1" s="33" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="33" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" s="34" t="s">
         <v>103</v>
       </c>
-      <c r="B1" s="33" t="s">
-        <v>104</v>
-      </c>
-      <c r="C1" s="33" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" s="33" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="34" t="s">
-        <v>105</v>
-      </c>
       <c r="F1" s="36" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="G1" s="36" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H1" s="36" t="s">
+        <v>125</v>
+      </c>
+      <c r="I1" s="36" t="s">
+        <v>126</v>
+      </c>
+      <c r="J1" s="36" t="s">
         <v>127</v>
       </c>
-      <c r="I1" s="36" t="s">
-        <v>128</v>
-      </c>
-      <c r="J1" s="36" t="s">
-        <v>129</v>
-      </c>
       <c r="K1" s="36" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="L1" s="36" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13065,22 +13005,22 @@
         <v>1</v>
       </c>
       <c r="G2" s="47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="H2" s="47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="I2" s="47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="K2" s="47" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="L2" s="47" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -13979,28 +13919,28 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="10.70703125" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="100.34"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="49" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B1" s="49"/>
     </row>
     <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="50" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B2" s="51" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="52" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B3" s="53" t="n">
         <v>0</v>
@@ -14008,7 +13948,7 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="54" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B4" s="55" t="n">
         <v>1</v>
@@ -14016,7 +13956,7 @@
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B5" s="57" t="n">
         <v>2</v>
@@ -14024,7 +13964,7 @@
     </row>
     <row r="6" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B6" s="59" t="n">
         <v>3</v>
@@ -14032,7 +13972,7 @@
     </row>
     <row r="7" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="60" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B7" s="61" t="n">
         <v>4</v>
@@ -14063,21 +14003,21 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="7" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="7" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
   </sheetData>
